--- a/典型游戏服架构.xlsx
+++ b/典型游戏服架构.xlsx
@@ -47,12 +47,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+  <si>
+    <t>高性能，高负载的典型结构</t>
+  </si>
   <si>
     <t>分区结构</t>
   </si>
   <si>
     <t>全局服结构</t>
+  </si>
+  <si>
+    <t>进程介绍：</t>
+  </si>
+  <si>
+    <t>router,global router:</t>
+  </si>
+  <si>
+    <t>作用：</t>
+  </si>
+  <si>
+    <t>进程通讯都通过router间接通讯，链接拓扑结构采用星型。</t>
+  </si>
+  <si>
+    <t>避免复杂的网状型链接结构。</t>
+  </si>
+  <si>
+    <t>特点：</t>
+  </si>
+  <si>
+    <t>任意进程通过本区center 或者 global center 获取router list 接入。就可以和其他的进程通信。地址协议比如：zoneIdx.SvrName.Idx (类似 internet)</t>
+  </si>
+  <si>
+    <t>router 作为客户端链接上 global router。</t>
+  </si>
+  <si>
+    <t>需要高效的进行间可以选择直接链接，通讯效率更高。不过链接结果会复杂化。</t>
+  </si>
+  <si>
+    <t>代码实现用 客户端驱动库提供给进程。 简化进程通讯代码开发。</t>
+  </si>
+  <si>
+    <t>center，global center:</t>
+  </si>
+  <si>
+    <t>作为最中心协调者。 服务器发现，配置中心化。</t>
+  </si>
+  <si>
+    <t>作为管理者，需要稳定的进程。</t>
+  </si>
+  <si>
+    <t>如果要求高可用，可用多进程，etcd, mongodb Replica-Set 技术。</t>
+  </si>
+  <si>
+    <t>pay:</t>
+  </si>
+  <si>
+    <t>作用:</t>
+  </si>
+  <si>
+    <t>作为第三方支付的接收通知服务器，比如 接收支付宝 订单付钱成功的通知.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多进程，高可用，无会话状态。 </t>
+  </si>
+  <si>
+    <t>Login,SvrList:</t>
+  </si>
+  <si>
+    <t>登陆，服务器列表</t>
+  </si>
+  <si>
+    <t>CrossScene,Scene:</t>
+  </si>
+  <si>
+    <t>Scene游戏主要逻辑，CrossScene为跨服游戏主要逻辑</t>
+  </si>
+  <si>
+    <t>性能可伸缩，需要协调进程。</t>
+  </si>
+  <si>
+    <t>relation,match,other，CrossMatch:</t>
+  </si>
+  <si>
+    <t>组队，好友，匹配，或者其他专用功能。</t>
+  </si>
+  <si>
+    <t>单进程。</t>
+  </si>
+  <si>
+    <t>access:</t>
+  </si>
+  <si>
+    <t>客户端接入服务器，负责多进程服务器和客户端通讯转发。</t>
+  </si>
+  <si>
+    <t>多进程，高可用。</t>
+  </si>
+  <si>
+    <t>结语：</t>
+  </si>
+  <si>
+    <t>实际项目根据需求设计架构。进程数拆分越多就越复杂，开发成本越高。 应该根据需求，尽量把功能合并成简单的结构。</t>
+  </si>
+  <si>
+    <t>db瓶颈可以考虑 db缓存 或者 db拆分，大多数游戏服务器其实并不需要db缓存。没必要设计复杂化。</t>
   </si>
   <si>
     <t>评论</t>
@@ -174,9 +273,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -195,9 +294,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,78 +354,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,6 +378,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -310,9 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,19 +415,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -352,7 +451,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,73 +541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,67 +565,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +599,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -543,6 +642,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,11 +671,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,8 +695,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -611,6 +719,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,24 +742,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -651,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2754,20 +2853,243 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E2:P2"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A91" sqref="$A91:$XFD92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="5:16">
       <c r="E2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2782,8 +3104,8 @@
   <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2801,283 +3123,283 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/典型游戏服架构.xlsx
+++ b/典型游戏服架构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="24315" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="MMORPG架构图" sheetId="4" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <t>router 作为客户端链接上 global router。</t>
   </si>
   <si>
-    <t>需要高效的进行间可以选择直接链接，通讯效率更高。不过链接结果会复杂化。</t>
+    <t>需要高效的进程间可以选择直接链接，通讯效率更高。不过链接结果会复杂化。</t>
   </si>
   <si>
     <t>代码实现用 客户端驱动库提供给进程。 简化进程通讯代码开发。</t>
@@ -275,8 +275,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -284,6 +284,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,24 +338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,8 +354,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,17 +371,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,9 +401,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,50 +423,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -451,7 +451,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,37 +565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,37 +601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,91 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,15 +642,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,6 +656,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,45 +742,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -750,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2855,8 +2855,8 @@
   <sheetPr/>
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A91" sqref="$A91:$XFD92"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
